--- a/pred_ohlcv/54_21/2019-11-15 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>48743.8538</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>49103.8538</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>52178.55379999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>50894.49849999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>60553.59559999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>61781.82239999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>61783.82239999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>61783.82239999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>61562.35779999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>61442.35779999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>61482.35779999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>61460.36539999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>61462.36539999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>61413.89299999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>60595.66239999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>58717.66659999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>79567.89509999997</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>77774.28459999997</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>81243.92109999996</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>83713.9764408163</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>83945.13117306121</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>82545.13117306121</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>82313.97647306121</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>82363.82977306121</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>82411.82977306121</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>102730.0186730612</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>103656.2852730612</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>98490.75537306121</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>99622.96717306122</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>99382.93617306121</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>90994.68567306122</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>90994.68567306122</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>90690.41197306121</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>94786.86627590214</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>100375.3268759021</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>97758.35107590214</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>98966.14837590215</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>95474.83137590215</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>95474.83137590215</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>97067.24937590216</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-15 ABT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 ABT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>48743.8538</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>49103.8538</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>52178.55379999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>50894.49849999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>60553.59559999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>61781.82239999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>61783.82239999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>61783.82239999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>61562.35779999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>61442.35779999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>61482.35779999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>61460.36539999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>61462.36539999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>61413.89299999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>60595.66239999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>58717.66659999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>77774.28459999997</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>76785.28459999997</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>76218.25089999997</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>76218.25089999997</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>81364.49129999997</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>81364.49129999997</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>84183.45189999997</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>102730.0186730612</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>100375.3268759021</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>100373.3268759021</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>101123.3268759021</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>97412.52117590215</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>98966.14837590215</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>95474.83137590215</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>95474.83137590215</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
